--- a/分布式事务/分布式事务.xlsx
+++ b/分布式事务/分布式事务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8010"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,140 @@
     <t>两阶段提交方案/XA方案</t>
   </si>
   <si>
-    <t>所谓的 XA 方案，即：两阶段提交，有一个事务管理器的概念，负责协调多个数据库（资源管理器）的事务，事务管理器先问问各个数据库你准备好了吗？</t>
-  </si>
-  <si>
-    <t>如果每个数据库都回复 ok，那么就正式提交事务，在各个数据库上执行操作；</t>
-  </si>
-  <si>
-    <t>如果任何其中一个数据库回答不 ok，那么就回滚事务。</t>
-  </si>
-  <si>
-    <t>这种分布式事务方案，比较适合单块应用里，跨多个库的分布式事务，而且因为严重依赖于数据库层面来搞定复杂的事务，效率很低，绝对不适合高并发的场景。</t>
+    <r>
+      <t>所谓的 XA 方案，即：两阶段提交，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有一个事务管理器的概念，负责协调多个数据库（资源管理器）的事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，事务管理器先问问各个数据库你准备好了吗？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果每个数据库都回复 ok，那么就正式提交事务，在各个数据库上执行操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果任何其中一个数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回答不 ok，那么就回滚事务。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这种分布式事务方案，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比较适合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单块应用里，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跨多个库的分布式事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而且因为严重</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>依赖于数据库层面来搞定复杂的事务，效率很低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，绝对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不适合高并发的场景。</t>
+    </r>
   </si>
   <si>
     <t>TCC 方案（很少人使用）</t>
@@ -57,22 +181,200 @@
     <t>TCC 的全称是：Try、Confirm、Cancel。</t>
   </si>
   <si>
-    <t>Try 阶段：这个阶段说的是对各个服务的资源做检测以及对资源进行锁定或者预留。</t>
-  </si>
-  <si>
-    <t>Confirm 阶段：这个阶段说的是在各个服务中执行实际的操作。</t>
-  </si>
-  <si>
-    <t>Cancel 阶段：如果任何一个服务的业务方法执行出错，那么这里就需要进行补偿，就是执行已经执行成功的业务逻辑的回滚操作。</t>
+    <r>
+      <t>Try 阶段：这个阶段说的是对各个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务的资源做检测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以及</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对资源进行锁定或者预留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Confirm 阶段：这个阶段说的是在各个服务中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执行实际的操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cancel 阶段：如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任何一个服务的业务方法执行出错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那么这里就需要进行补偿，就是执行已经执行成功的业务逻辑的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回滚操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>使用的场景。因为这个事务回滚实际上是严重依赖于你自己写代码来回滚和补偿了，会造成补偿代码巨大，非常之恶心。</t>
   </si>
   <si>
-    <t>比如说我们，一般来说跟钱相关的，跟钱打交道的，支付、交易相关的场景，我们会用 TCC，严格保证分布式事务要么全部成功，</t>
-  </si>
-  <si>
-    <t>要么全部自动回滚，严格保证资金的正确性，保证在资金上不会出现问题。</t>
+    <r>
+      <t>比如说我们，一般来说跟钱相关的，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跟钱打交道的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，支付、交易相关的场景，我们会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用 TCC，严格保证分布式事务要么全部成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要么</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全部自动回滚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，严格保证资金的正确性，保证在资金上不会出现问题。</t>
+    </r>
   </si>
   <si>
     <t>直接基于 MQ 来实现事务。比如阿里的 RocketMQ 就支持消息事务。</t>
@@ -113,12 +415,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,44 +434,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,67 +445,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +515,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,8 +543,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -280,7 +575,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +590,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,175 +608,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +781,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,6 +829,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -536,9 +864,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,188 +881,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -743,7 +1038,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,8 +1438,8 @@
   <sheetPr/>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1153,7 +1448,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1188,22 +1483,22 @@
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1218,17 +1513,17 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1238,12 +1533,12 @@
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/分布式事务/分布式事务.xlsx
+++ b/分布式事务/分布式事务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1438,8 +1438,8 @@
   <sheetPr/>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
